--- a/Assets/Resources/CSV.data/EnemyGrowthStat.xlsx
+++ b/Assets/Resources/CSV.data/EnemyGrowthStat.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project_Brotatos\Assets\Resources\CSV.data\StatInfo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project_Brotatos\Assets\Resources\CSV.data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>몬스터 이름</t>
   </si>
@@ -40,9 +40,6 @@
   </si>
   <si>
     <t>TANKER</t>
-  </si>
-  <si>
-    <t>BOSS</t>
   </si>
   <si>
     <t>TREE</t>
@@ -985,10 +982,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:C7"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -1062,17 +1059,6 @@
         <v>0</v>
       </c>
       <c r="C6" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="2">
-        <v>0</v>
-      </c>
-      <c r="C7" s="2">
         <v>0</v>
       </c>
     </row>

--- a/Assets/Resources/CSV.data/EnemyGrowthStat.xlsx
+++ b/Assets/Resources/CSV.data/EnemyGrowthStat.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>몬스터 이름</t>
   </si>
@@ -43,6 +43,14 @@
   </si>
   <si>
     <t>TREE</t>
+  </si>
+  <si>
+    <t>PREDATOR</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>INVOKER</t>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -982,10 +990,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="A7" sqref="A7:C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -1053,12 +1061,34 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B6" s="2">
         <v>0</v>
       </c>
       <c r="C6" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="2">
+        <v>0</v>
+      </c>
+      <c r="C7" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2">
+        <v>0</v>
+      </c>
+      <c r="C8" s="2">
         <v>0</v>
       </c>
     </row>

--- a/Assets/Resources/CSV.data/EnemyGrowthStat.xlsx
+++ b/Assets/Resources/CSV.data/EnemyGrowthStat.xlsx
@@ -45,11 +45,11 @@
     <t>TREE</t>
   </si>
   <si>
-    <t>PREDATOR</t>
+    <t>INVOKER</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>INVOKER</t>
+    <t>PREDATOR</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -993,7 +993,7 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:C7"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -1020,10 +1020,10 @@
         <v>3</v>
       </c>
       <c r="B2" s="2">
-        <v>38</v>
+        <v>2</v>
       </c>
       <c r="C2" s="2">
-        <v>1</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -1031,10 +1031,10 @@
         <v>4</v>
       </c>
       <c r="B3" s="2">
-        <v>38</v>
+        <v>1</v>
       </c>
       <c r="C3" s="2">
-        <v>1</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -1042,10 +1042,10 @@
         <v>5</v>
       </c>
       <c r="B4" s="2">
-        <v>38</v>
+        <v>2.5</v>
       </c>
       <c r="C4" s="2">
-        <v>1</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -1053,32 +1053,32 @@
         <v>6</v>
       </c>
       <c r="B5" s="2">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="C5" s="2">
-        <v>1</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B6" s="2">
         <v>0</v>
       </c>
       <c r="C6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B7" s="2">
         <v>0</v>
       </c>
       <c r="C7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">

--- a/Assets/Resources/CSV.data/EnemyGrowthStat.xlsx
+++ b/Assets/Resources/CSV.data/EnemyGrowthStat.xlsx
@@ -993,7 +993,7 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -1086,7 +1086,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C8" s="2">
         <v>0</v>
